--- a/data/SW_picks_v4.xlsx
+++ b/data/SW_picks_v4.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panning/git/overleaf/R1R2R3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE3EC70-E73A-1E48-8FF2-6F4DEE14DFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9BEC5D-71A7-4C47-B461-2AA181298A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="500" windowWidth="25960" windowHeight="21100" activeTab="2" xr2:uid="{7B6C612F-84E8-2349-A272-7D0E4C8B07CA}"/>
+    <workbookView xWindow="26360" yWindow="660" windowWidth="25960" windowHeight="21100" activeTab="2" xr2:uid="{7B6C612F-84E8-2349-A272-7D0E4C8B07CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="SW_picks" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Backazimuth" sheetId="4" r:id="rId3"/>
+    <sheet name="All picks" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
   <si>
     <t>Surface wave group picks</t>
   </si>
@@ -221,6 +222,108 @@
   </si>
   <si>
     <t>average (HQ)</t>
+  </si>
+  <si>
+    <t>Pick</t>
+  </si>
+  <si>
+    <t>Alt R2</t>
+  </si>
+  <si>
+    <t>Method 1 (JPL)</t>
+  </si>
+  <si>
+    <t>Method 2 (MQS)</t>
+  </si>
+  <si>
+    <t>Method 3 (UCLA)</t>
+  </si>
+  <si>
+    <t>Method 4 (BKE)</t>
+  </si>
+  <si>
+    <t>Max corr</t>
+  </si>
+  <si>
+    <t>Baz max</t>
+  </si>
+  <si>
+    <t>Range &gt; 80% max</t>
+  </si>
+  <si>
+    <t>68-176</t>
+  </si>
+  <si>
+    <t>94-200</t>
+  </si>
+  <si>
+    <t>72-202</t>
+  </si>
+  <si>
+    <t>318-18</t>
+  </si>
+  <si>
+    <t>318-12</t>
+  </si>
+  <si>
+    <t>308-12</t>
+  </si>
+  <si>
+    <t>130-218</t>
+  </si>
+  <si>
+    <t>122-214</t>
+  </si>
+  <si>
+    <t>120-220</t>
+  </si>
+  <si>
+    <t>Carrasco</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>114-137</t>
+  </si>
+  <si>
+    <t>266-301</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>114.5-139.7</t>
+  </si>
+  <si>
+    <t>R1 overtone</t>
+  </si>
+  <si>
+    <t>112.3-132.2</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>96.8-132.3</t>
+  </si>
+  <si>
+    <t>G1 overtone</t>
+  </si>
+  <si>
+    <t>112.6-133.4</t>
+  </si>
+  <si>
+    <t>188-224</t>
+  </si>
+  <si>
+    <t>7.5-148.5</t>
+  </si>
+  <si>
+    <t>Note that this accounts for 180 degree azimuth switch for R2, unlike the above estimates</t>
   </si>
 </sst>
 </file>
@@ -268,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -291,12 +394,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -305,6 +559,23 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,12 +891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8195517C-68B4-794A-A146-210190B15C80}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4540" topLeftCell="Y1" activePane="topRight"/>
-      <selection activeCell="A93" sqref="A93:XFD133"/>
-      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <pane xSplit="4540" topLeftCell="D1" activePane="topRight"/>
+      <selection activeCell="A68" sqref="A68:A83"/>
+      <selection pane="topRight" activeCell="J68" sqref="J68:J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4186,6 +4458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13004362-EFE9-C948-8262-CBED4105A560}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4399,104 +4672,1319 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BFE9C7-8E12-9144-898A-DB4A8E99DB8B}">
-  <dimension ref="A1:B16"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C4">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="C5">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C9">
+        <v>348</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="C10">
+        <v>340</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="C11">
+        <v>340</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>0.629</v>
+      </c>
+      <c r="C14">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C15">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="C16">
+        <v>166</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>293</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>124.5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>123.6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>125.2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>197.1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8425DDD1-6B99-BF4C-B9B8-5666FACFF903}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>490.25</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2.9730199999999998E-2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>493.41000036802143</v>
+      </c>
+      <c r="E4" s="11">
+        <v>6.1138521548271915E-2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>535.88529112748802</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2.35E-2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>485.51500006578863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>490.84</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3.5355299999999999E-2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>492.6100003067404</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5.7539716789513959E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>535.88529112748802</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>485.21500043570995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="B6" s="12">
+        <v>501.55</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4.20448E-2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>508.61000027507544</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5.4341033457774301E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>525.48958584666252</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>486.51500029955059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B7" s="12">
+        <v>512.41999999999996</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="19">
+        <v>522.21000005956739</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5.1479256433620071E-2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>525.48958584666252</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>489.0149999409914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>521.27</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5.9460399999999997E-2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>542.50999996438622</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4.8903820855523444E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>515.35574547015131</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>492.56500017363578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="B9" s="12">
+        <v>529.21</v>
+      </c>
+      <c r="C9" s="12">
+        <v>7.0710700000000001E-2</v>
+      </c>
+      <c r="D9" s="19">
+        <v>615.71000022813678</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4.6573798512432873E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>515.35574547015131</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>497.36500054132193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="B10" s="12">
+        <v>536</v>
+      </c>
+      <c r="C10" s="13">
+        <v>8.40896E-2</v>
+      </c>
+      <c r="D10" s="21">
+        <v>622.51000043470412</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.4455706556772161E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>515.35574547015131</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H10" s="12">
+        <v>503.7650004029274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>585.77</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="12">
+        <v>4.2522068953787018E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>505.47399774659425</v>
+      </c>
+      <c r="G11" s="12">
+        <v>3.85E-2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>508.46500005573034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="B12" s="13">
+        <v>586.76</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2.9730199999999998E-2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>6379.310000105761</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.0749464144546499E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>505.47399774659425</v>
+      </c>
+      <c r="G12" s="12">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>511.2150002270937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13">
+        <v>3.5355299999999999E-2</v>
+      </c>
+      <c r="D13" s="21">
+        <v>6363.7100004823878</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3.9118733178944737E-2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>505.47399774659425</v>
+      </c>
+      <c r="G13" s="12">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="H13" s="12">
+        <v>513.5150003246963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B14" s="14">
+        <v>6375.26</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16">
-        <v>166</v>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12">
+        <v>3.7613498732425088E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>495.83505133632571</v>
+      </c>
+      <c r="G14" s="12">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="H14" s="12">
+        <v>515.66499997861683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B15" s="15">
+        <v>6373.66</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2.9730199999999998E-2</v>
+      </c>
+      <c r="D15" s="17">
+        <v>7871.8100004130974</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3.6219810787708445E-2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>495.83505133632571</v>
+      </c>
+      <c r="G15" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H15" s="12">
+        <v>517.91500034742057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="B16" s="15">
+        <v>6375.01</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3.5355299999999999E-2</v>
+      </c>
+      <c r="D16" s="21">
+        <v>7891.4100003428757</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3.4925713008431065E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>495.83505133632571</v>
+      </c>
+      <c r="G16" s="12">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>520.21500044502318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B17" s="15">
+        <v>6376.71</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3.3720898864280126E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>486.43006689380854</v>
+      </c>
+      <c r="G17" s="12">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="H17" s="12">
+        <v>522.61500000022352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B18" s="12">
+        <v>6377.97</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3.2596436557555529E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>486.43006689380854</v>
+      </c>
+      <c r="G18" s="12">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="H18" s="12">
+        <v>524.91500009782612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="B19" s="13">
+        <v>6383.81</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3.0558518034109416E-2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>477.25062752142549</v>
+      </c>
+      <c r="G19" s="12">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="H19" s="12">
+        <v>527.06500038038939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="E20" s="12">
+        <v>2.8760342938329197E-2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>477.25062752142549</v>
+      </c>
+      <c r="G20" s="12">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="H20" s="12">
+        <v>529.01500049047172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B21" s="14">
+        <v>7872.31</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2.7162029655503978E-2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>468.28871676698327</v>
+      </c>
+      <c r="G21" s="12">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="H21" s="12">
+        <v>530.86500051431358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B22" s="15">
+        <v>7863.56</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2.5732011394134648E-2</v>
+      </c>
+      <c r="F22" s="12">
+        <v>459.53669222071767</v>
+      </c>
+      <c r="G22" s="12">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H22" s="12">
+        <v>532.81499999575317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="B23" s="15">
+        <v>7864.21</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2.4445096313679474E-2</v>
+      </c>
+      <c r="F23" s="13">
+        <v>459.53669222071767</v>
+      </c>
+      <c r="G23" s="12">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="H23" s="12">
+        <v>535.06500036455691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B24" s="15">
+        <v>7882.36</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="12">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="H24" s="12">
+        <v>537.51500027719885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B25" s="16">
+        <v>7882.72</v>
+      </c>
+      <c r="E25" s="11">
+        <v>3.9455825258041095E-2</v>
+      </c>
+      <c r="F25" s="11">
+        <v>6356.5343554364517</v>
+      </c>
+      <c r="G25" s="12">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="H25" s="12">
+        <v>539.51500011608005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="E26" s="12">
+        <v>3.7908511598109124E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>6356.5343554364517</v>
+      </c>
+      <c r="G26" s="12">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="H26" s="12">
+        <v>541.1150002386421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B27" s="18">
+        <v>6661.96</v>
+      </c>
+      <c r="E27" s="12">
+        <v>3.6477978244533776E-2</v>
+      </c>
+      <c r="F27" s="12">
+        <v>6356.5343554364517</v>
+      </c>
+      <c r="G27" s="13">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="H27" s="13">
+        <v>542.36500037368387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B28" s="20">
+        <v>6653.51</v>
+      </c>
+      <c r="E28" s="12">
+        <v>3.5151485326012449E-2</v>
+      </c>
+      <c r="F28" s="12">
+        <v>6375.4841068061069</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="B29" s="20">
+        <v>6688.06</v>
+      </c>
+      <c r="E29" s="12">
+        <v>3.3918081050646476E-2</v>
+      </c>
+      <c r="F29" s="19">
+        <v>6375.4841068061069</v>
+      </c>
+      <c r="G29" s="11">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="H29" s="11">
+        <v>6355.3100001532584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B30" s="20">
+        <v>6697.87</v>
+      </c>
+      <c r="E30" s="12">
+        <v>3.2768406013657873E-2</v>
+      </c>
+      <c r="F30" s="19">
+        <v>6375.4841068061069</v>
+      </c>
+      <c r="G30" s="12">
+        <v>2.35E-2</v>
+      </c>
+      <c r="H30" s="12">
+        <v>6356.1599999433383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B31" s="20">
+        <v>6708.01</v>
+      </c>
+      <c r="E31" s="12">
+        <v>3.0687837182611047E-2</v>
+      </c>
+      <c r="F31" s="19">
+        <v>6375.4841068061069</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H31" s="12">
+        <v>6357.3600003495812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="B32" s="22">
+        <v>6726.36</v>
+      </c>
+      <c r="E32" s="13">
+        <v>2.8855698423324638E-2</v>
+      </c>
+      <c r="F32" s="21">
+        <v>6356.5343554364517</v>
+      </c>
+      <c r="G32" s="12">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="H32" s="12">
+        <v>6358.7600002996624</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="12">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="H33" s="12">
+        <v>6360.1100005209446</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E34" s="11">
+        <v>3.9455825258041095E-2</v>
+      </c>
+      <c r="F34" s="17">
+        <v>7900.0669552478939</v>
+      </c>
+      <c r="G34" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H34" s="12">
+        <v>6361.3100002985448</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E35" s="12">
+        <v>3.7908511598109124E-2</v>
+      </c>
+      <c r="F35" s="19">
+        <v>7900.0669552478939</v>
+      </c>
+      <c r="G35" s="12">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="H35" s="12">
+        <v>6362.2600001748651</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="12">
+        <v>3.6477978244533776E-2</v>
+      </c>
+      <c r="F36" s="19">
+        <v>7876.7757744994015</v>
+      </c>
+      <c r="G36" s="12">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H36" s="12">
+        <v>6363.0600002361462</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E37" s="12">
+        <v>3.5151485326012449E-2</v>
+      </c>
+      <c r="F37" s="19">
+        <v>7876.7757744994015</v>
+      </c>
+      <c r="G37" s="12">
+        <v>3.85E-2</v>
+      </c>
+      <c r="H37" s="12">
+        <v>6363.7600002111867</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E38" s="12">
+        <v>3.3918081050646476E-2</v>
+      </c>
+      <c r="F38" s="19">
+        <v>7876.7757744994015</v>
+      </c>
+      <c r="G38" s="12">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="H38" s="12">
+        <v>6364.5100005436689</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E39" s="12">
+        <v>3.2768406013657873E-2</v>
+      </c>
+      <c r="F39" s="19">
+        <v>7876.7757744994015</v>
+      </c>
+      <c r="G39" s="12">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="H39" s="12">
+        <v>6365.5100001487881</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E40" s="12">
+        <v>3.0687837182611047E-2</v>
+      </c>
+      <c r="F40" s="19">
+        <v>7853.6168658407405</v>
+      </c>
+      <c r="G40" s="12">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="H40" s="12">
+        <v>6367.4100005300716</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E41" s="12">
+        <v>2.8855698423324638E-2</v>
+      </c>
+      <c r="F41" s="19">
+        <v>7853.6168658407405</v>
+      </c>
+      <c r="G41" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H41" s="12">
+        <v>6370.6100001465529</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="13">
+        <v>2.7230075073316977E-2</v>
+      </c>
+      <c r="F42" s="21">
+        <v>7718.1959718000144</v>
+      </c>
+      <c r="G42" s="12">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="H42" s="12">
+        <v>6373.4100000467151</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G43" s="12">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="H43" s="12">
+        <v>6375.4100005142391</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="13">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="H44" s="13">
+        <v>6376.7600001068786</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G46" s="11">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H46" s="11">
+        <v>7900.8100002771243</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G47" s="12">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="H47" s="12">
+        <v>7901.6600000672042</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G48" s="12">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="H48" s="12">
+        <v>7901.7600001534447</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H49" s="12">
+        <v>7901.3600004371256</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G50" s="12">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="H50" s="12">
+        <v>7900.5600003758445</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G51" s="12">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H51" s="12">
+        <v>7899.4600000558421</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="12">
+        <v>3.85E-2</v>
+      </c>
+      <c r="H52" s="12">
+        <v>7898.3100000070408</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G53" s="12">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="H53" s="12">
+        <v>7897.5600003032014</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G54" s="12">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="H54" s="12">
+        <v>7897.9600000195205</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G55" s="12">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="H55" s="12">
+        <v>7899.1600004257634</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G56" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H56" s="12">
+        <v>7900.2100003883243</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G57" s="12">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="H57" s="12">
+        <v>7900.9100003633648</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G58" s="12">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="H58" s="12">
+        <v>7901.3600004371256</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G59" s="12">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="H59" s="12">
+        <v>7901.6600000672042</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G60" s="12">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="H60" s="12">
+        <v>7901.909999968484</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G61" s="13">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="H61" s="13">
+        <v>7902.0600004121661</v>
       </c>
     </row>
   </sheetData>
